--- a/Data/EC/NIT-9011911581.xlsx
+++ b/Data/EC/NIT-9011911581.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF005643-0C68-4F3B-8C74-161BCD59A901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FE05E92-6BED-4DBA-A91F-6F865FDAEA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FA09ADBC-C822-4C25-B7D0-58EFE7F0D755}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4188B8E4-F9CA-4BA4-89AF-D93B0EA328FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="104">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,241 +65,256 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1127593295</t>
+  </si>
+  <si>
+    <t>ZIULYSABEL CABARCAS CABARCAS</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>73214096</t>
+  </si>
+  <si>
+    <t>RAMON DE LOS ANGELES PADILLA QUEJADA</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>1047407801</t>
+  </si>
+  <si>
+    <t>KAROLIN DAYAN MORALES NOEL</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>1143362705</t>
+  </si>
+  <si>
+    <t>DEYSIS LOZANO BELLO</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>1235039256</t>
+  </si>
+  <si>
+    <t>DIANIS ISABEL GONZALEZ ARRIETA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
     <t>19347182</t>
   </si>
   <si>
     <t>ADRIANA PATRICIA MONTES PEREZ</t>
   </si>
   <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>2002</t>
   </si>
   <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>1143362705</t>
-  </si>
-  <si>
-    <t>DEYSIS LOZANO BELLO</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>73214096</t>
-  </si>
-  <si>
-    <t>RAMON DE LOS ANGELES PADILLA QUEJADA</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
     <t>1005387952</t>
   </si>
   <si>
     <t>AURA DANIELA RETAMOZA ATENCIA</t>
   </si>
   <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
     <t>1143334268</t>
   </si>
   <si>
     <t>DARLIN ELENA CANABAL PAJARO</t>
   </si>
   <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>1047407801</t>
-  </si>
-  <si>
-    <t>KAROLIN DAYAN MORALES NOEL</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
     <t>1002389300</t>
   </si>
   <si>
     <t>DARILUZ GARCIA PINO</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -343,7 +358,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,7 +728,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3FE0F05-9F05-6FF0-1419-5926DC09F2F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BB250C-2A57-1F29-FCFF-8C181A80E8F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1064,32 +1079,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1ABB478-C4A3-4AE7-BB04-14AABC73DF11}">
-  <dimension ref="B2:J131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A27026-5C95-48FD-A032-E99CF5C8A1B3}">
+  <dimension ref="B2:J164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1098,7 +1113,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1109,7 +1124,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1120,7 +1135,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1131,10 +1146,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1147,8 +1162,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1163,15 +1178,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4143728</v>
+        <v>5420738</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1179,27 +1194,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F13" s="5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1219,16 +1234,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1242,855 +1257,855 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>104000</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>2600000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>35112</v>
+        <v>104000</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>2600000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>35112</v>
+        <v>104000</v>
       </c>
       <c r="G19" s="18">
-        <v>877803</v>
+        <v>2600000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>15215</v>
+        <v>7268</v>
       </c>
       <c r="G20" s="18">
-        <v>877803</v>
+        <v>2600000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
-        <v>19897</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G30" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
-        <v>7268</v>
+        <v>40000</v>
       </c>
       <c r="G32" s="18">
-        <v>3205173</v>
+        <v>828116</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G34" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F35" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F36" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F37" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F38" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G38" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F41" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F42" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F43" s="18">
-        <v>4845</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F44" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G44" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F45" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G45" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F46" s="18">
-        <v>34666</v>
+        <v>40000</v>
       </c>
       <c r="G46" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F47" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G47" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F48" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G48" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F49" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G49" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G50" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F51" s="18">
-        <v>104000</v>
+        <v>40000</v>
       </c>
       <c r="G51" s="18">
-        <v>3205173</v>
+        <v>828116</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F52" s="18">
-        <v>104000</v>
+        <v>19897</v>
       </c>
       <c r="G52" s="18">
-        <v>3205173</v>
+        <v>877803</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -2102,44 +2117,44 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F54" s="18">
-        <v>104000</v>
+        <v>35112</v>
       </c>
       <c r="G54" s="18">
-        <v>3205173</v>
+        <v>877803</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F55" s="18">
-        <v>35112</v>
+        <v>15215</v>
       </c>
       <c r="G55" s="18">
         <v>877803</v>
@@ -2148,21 +2163,21 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F56" s="18">
-        <v>35112</v>
+        <v>1898</v>
       </c>
       <c r="G56" s="18">
         <v>877803</v>
@@ -2171,41 +2186,41 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F57" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G57" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
@@ -2217,18 +2232,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F59" s="18">
         <v>35112</v>
@@ -2240,64 +2255,64 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F60" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G60" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F61" s="18">
-        <v>37333</v>
+        <v>35112</v>
       </c>
       <c r="G61" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F62" s="18">
         <v>35112</v>
@@ -2309,41 +2324,41 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F63" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G63" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="F64" s="18">
         <v>35112</v>
@@ -2355,41 +2370,41 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F65" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G65" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="F66" s="18">
         <v>35112</v>
@@ -2401,64 +2416,64 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F67" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G67" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F68" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G68" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F69" s="18">
         <v>35112</v>
@@ -2470,18 +2485,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F70" s="18">
         <v>35112</v>
@@ -2493,64 +2508,64 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F71" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G71" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F72" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G72" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F73" s="18">
         <v>35112</v>
@@ -2562,18 +2577,18 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F74" s="18">
         <v>35112</v>
@@ -2585,64 +2600,64 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F75" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G75" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F76" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G76" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F77" s="18">
         <v>35112</v>
@@ -2654,18 +2669,18 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F78" s="18">
         <v>35112</v>
@@ -2677,64 +2692,64 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F79" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G79" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F80" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G80" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F81" s="18">
         <v>35112</v>
@@ -2746,41 +2761,41 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F82" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G82" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F83" s="18">
         <v>35112</v>
@@ -2792,41 +2807,41 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F84" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G84" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F85" s="18">
         <v>35112</v>
@@ -2838,18 +2853,18 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F86" s="18">
         <v>35112</v>
@@ -2861,41 +2876,41 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F87" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G87" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F88" s="18">
         <v>35112</v>
@@ -2907,41 +2922,41 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F89" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G89" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F90" s="18">
         <v>35112</v>
@@ -2953,41 +2968,41 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F91" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G91" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F92" s="18">
         <v>35112</v>
@@ -2999,41 +3014,41 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F93" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G93" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="F94" s="18">
         <v>35112</v>
@@ -3045,64 +3060,64 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="F95" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G95" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F96" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G96" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F97" s="18">
         <v>35112</v>
@@ -3114,41 +3129,41 @@
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F98" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G98" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F99" s="18">
         <v>35112</v>
@@ -3160,18 +3175,18 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F100" s="18">
         <v>35112</v>
@@ -3183,64 +3198,64 @@
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F101" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G101" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F102" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G102" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F103" s="18">
         <v>35112</v>
@@ -3252,41 +3267,41 @@
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F104" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G104" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F105" s="18">
         <v>35112</v>
@@ -3298,41 +3313,41 @@
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F106" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G106" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F107" s="18">
         <v>35112</v>
@@ -3344,18 +3359,18 @@
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F108" s="18">
         <v>35112</v>
@@ -3367,64 +3382,64 @@
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F109" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G109" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F110" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G110" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="F111" s="18">
         <v>35112</v>
@@ -3436,38 +3451,38 @@
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F112" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G112" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E113" s="16" t="s">
         <v>81</v>
@@ -3482,15 +3497,15 @@
       <c r="I113" s="19"/>
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E114" s="16" t="s">
         <v>82</v>
@@ -3505,41 +3520,41 @@
       <c r="I114" s="19"/>
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="F115" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G115" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F116" s="18">
         <v>35112</v>
@@ -3551,64 +3566,64 @@
       <c r="I116" s="19"/>
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E117" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D117" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>83</v>
-      </c>
       <c r="F117" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G117" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D118" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E118" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E118" s="16" t="s">
-        <v>84</v>
-      </c>
       <c r="F118" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G118" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F119" s="18">
         <v>35112</v>
@@ -3620,38 +3635,38 @@
       <c r="I119" s="19"/>
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F120" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G120" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E121" s="16" t="s">
         <v>85</v>
@@ -3666,15 +3681,15 @@
       <c r="I121" s="19"/>
       <c r="J121" s="20"/>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E122" s="16" t="s">
         <v>86</v>
@@ -3689,44 +3704,44 @@
       <c r="I122" s="19"/>
       <c r="J122" s="20"/>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F123" s="18">
-        <v>40000</v>
+        <v>4845</v>
       </c>
       <c r="G123" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
       <c r="J123" s="20"/>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F124" s="18">
-        <v>40000</v>
+        <v>34666</v>
       </c>
       <c r="G124" s="18">
         <v>1000000</v>
@@ -3735,57 +3750,816 @@
       <c r="I124" s="19"/>
       <c r="J124" s="20"/>
     </row>
-    <row r="125" spans="2:10">
-      <c r="B125" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F125" s="24">
-        <v>35112</v>
-      </c>
-      <c r="G125" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H125" s="25"/>
-      <c r="I125" s="25"/>
-      <c r="J125" s="26"/>
-    </row>
-    <row r="130" spans="2:10">
-      <c r="B130" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C130" s="32"/>
-      <c r="H130" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-    </row>
-    <row r="131" spans="2:10">
-      <c r="B131" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C131" s="32"/>
-      <c r="H131" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B125" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F125" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G125" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B126" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F126" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G126" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="20"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B127" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F127" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G127" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="20"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B128" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F128" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G128" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="20"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B129" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G129" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="20"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B130" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G130" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="20"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B131" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G131" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="20"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B132" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G132" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="20"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B133" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G133" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="20"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B134" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G134" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B135" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G135" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="20"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B136" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F136" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G136" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B137" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F137" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G137" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="20"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B138" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G138" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="20"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B139" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G139" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="20"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B140" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F140" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G140" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="20"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B141" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F141" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G141" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="20"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B142" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F142" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G142" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B143" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F143" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G143" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="20"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B144" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F144" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G144" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="20"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B145" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F145" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G145" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="20"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B146" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F146" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G146" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="20"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B147" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F147" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G147" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="20"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B148" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G148" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="20"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B149" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F149" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G149" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="20"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B150" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F150" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G150" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="20"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B151" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F151" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G151" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="20"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B152" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F152" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G152" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="20"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B153" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F153" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G153" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="20"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B154" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F154" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G154" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="20"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B155" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F155" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G155" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="20"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B156" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F156" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G156" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="20"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B157" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F157" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G157" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="20"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B158" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D158" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E158" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F158" s="24">
+        <v>37333</v>
+      </c>
+      <c r="G158" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="26"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B163" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C163" s="32"/>
+      <c r="H163" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B164" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C164" s="32"/>
+      <c r="H164" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="H131:J131"/>
-    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="H164:J164"/>
+    <mergeCell ref="H163:J163"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9011911581.xlsx
+++ b/Data/EC/NIT-9011911581.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FE05E92-6BED-4DBA-A91F-6F865FDAEA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6B5AEB7-0B3C-4EB8-8A9B-1FAEB1C46993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4188B8E4-F9CA-4BA4-89AF-D93B0EA328FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{563B362C-7B8C-44EB-BE66-F6CEDD37DAD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="101">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,256 +65,247 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1127593295</t>
-  </si>
-  <si>
-    <t>ZIULYSABEL CABARCAS CABARCAS</t>
+    <t>19347182</t>
+  </si>
+  <si>
+    <t>ADRIANA PATRICIA MONTES PEREZ</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>1143362705</t>
+  </si>
+  <si>
+    <t>DEYSIS LOZANO BELLO</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>73214096</t>
+  </si>
+  <si>
+    <t>RAMON DE LOS ANGELES PADILLA QUEJADA</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>1005387952</t>
+  </si>
+  <si>
+    <t>AURA DANIELA RETAMOZA ATENCIA</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>1143334268</t>
+  </si>
+  <si>
+    <t>DARLIN ELENA CANABAL PAJARO</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>1047407801</t>
+  </si>
+  <si>
+    <t>KAROLIN DAYAN MORALES NOEL</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>1002389300</t>
+  </si>
+  <si>
+    <t>DARILUZ GARCIA PINO</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
   </si>
   <si>
     <t>2502</t>
   </si>
   <si>
-    <t>73214096</t>
-  </si>
-  <si>
-    <t>RAMON DE LOS ANGELES PADILLA QUEJADA</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>1047407801</t>
-  </si>
-  <si>
-    <t>KAROLIN DAYAN MORALES NOEL</t>
-  </si>
-  <si>
     <t>2503</t>
   </si>
   <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>1143362705</t>
-  </si>
-  <si>
-    <t>DEYSIS LOZANO BELLO</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>1235039256</t>
-  </si>
-  <si>
-    <t>DIANIS ISABEL GONZALEZ ARRIETA</t>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>19347182</t>
-  </si>
-  <si>
-    <t>ADRIANA PATRICIA MONTES PEREZ</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1005387952</t>
-  </si>
-  <si>
-    <t>AURA DANIELA RETAMOZA ATENCIA</t>
-  </si>
-  <si>
-    <t>1143334268</t>
-  </si>
-  <si>
-    <t>DARLIN ELENA CANABAL PAJARO</t>
-  </si>
-  <si>
-    <t>1002389300</t>
-  </si>
-  <si>
-    <t>DARILUZ GARCIA PINO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -413,7 +404,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -426,9 +419,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -628,23 +619,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -672,10 +663,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,7 +719,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BB250C-2A57-1F29-FCFF-8C181A80E8F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55087E8-52DA-BA09-A080-BD3110146352}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1079,8 +1070,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A27026-5C95-48FD-A032-E99CF5C8A1B3}">
-  <dimension ref="B2:J164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C29DE5-7B1B-46A7-8DCC-F131B750EE59}">
+  <dimension ref="B2:J135"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1104,7 +1095,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1149,7 +1140,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1181,12 +1172,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5420738</v>
+        <v>4281078</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1197,17 +1188,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F13" s="5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1234,13 +1225,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1257,10 +1248,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1271,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>104000</v>
+        <v>35112</v>
       </c>
       <c r="G17" s="18">
-        <v>2600000</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1294,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>104000</v>
+        <v>35112</v>
       </c>
       <c r="G18" s="18">
-        <v>2600000</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1317,19 +1308,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>104000</v>
+        <v>35112</v>
       </c>
       <c r="G19" s="18">
-        <v>2600000</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1340,19 +1331,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>7268</v>
+        <v>15215</v>
       </c>
       <c r="G20" s="18">
-        <v>2600000</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1363,19 +1354,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1386,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1409,19 +1400,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G23" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1432,19 +1423,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1455,19 +1446,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1478,19 +1469,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>19897</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1501,19 +1492,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G27" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1524,19 +1515,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1547,19 +1538,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1570,19 +1561,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1593,19 +1584,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>40000</v>
+        <v>7268</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>3205173</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1616,19 +1607,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F32" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G32" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1639,19 +1630,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G33" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1662,19 +1653,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F34" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G34" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1685,19 +1676,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F35" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G35" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1708,19 +1699,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F36" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G36" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1731,19 +1722,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F37" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G37" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1754,19 +1745,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F38" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1777,19 +1768,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F39" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G39" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1800,19 +1791,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F40" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G40" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1823,19 +1814,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G41" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1846,19 +1837,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G42" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1869,19 +1860,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G43" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1892,19 +1883,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F44" s="18">
-        <v>40000</v>
+        <v>4845</v>
       </c>
       <c r="G44" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1915,19 +1906,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G45" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1938,19 +1929,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F46" s="18">
-        <v>40000</v>
+        <v>34666</v>
       </c>
       <c r="G46" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1961,19 +1952,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G47" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1984,19 +1975,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G48" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2007,19 +1998,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G49" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2030,19 +2021,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
-        <v>40000</v>
+        <v>104000</v>
       </c>
       <c r="G50" s="18">
-        <v>828116</v>
+        <v>3205173</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2053,19 +2044,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G51" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2076,19 +2067,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>19897</v>
+        <v>104000</v>
       </c>
       <c r="G52" s="18">
-        <v>877803</v>
+        <v>3205173</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2099,13 +2090,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -2122,19 +2113,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F54" s="18">
-        <v>35112</v>
+        <v>104000</v>
       </c>
       <c r="G54" s="18">
-        <v>877803</v>
+        <v>3205173</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2145,16 +2136,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F55" s="18">
-        <v>15215</v>
+        <v>35112</v>
       </c>
       <c r="G55" s="18">
         <v>877803</v>
@@ -2168,16 +2159,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F56" s="18">
-        <v>1898</v>
+        <v>35112</v>
       </c>
       <c r="G56" s="18">
         <v>877803</v>
@@ -2191,19 +2182,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G57" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2214,13 +2205,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
@@ -2237,19 +2228,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F59" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G59" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2260,13 +2251,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2283,19 +2274,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F61" s="18">
-        <v>35112</v>
+        <v>37333</v>
       </c>
       <c r="G61" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2306,13 +2297,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F62" s="18">
         <v>35112</v>
@@ -2329,19 +2320,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F63" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G63" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2352,13 +2343,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F64" s="18">
         <v>35112</v>
@@ -2375,19 +2366,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F65" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G65" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2398,13 +2389,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F66" s="18">
         <v>35112</v>
@@ -2421,19 +2412,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F67" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G67" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2444,13 +2435,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F68" s="18">
         <v>35112</v>
@@ -2467,19 +2458,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D69" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F69" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G69" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2490,13 +2481,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F70" s="18">
         <v>35112</v>
@@ -2513,19 +2504,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D71" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E71" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F71" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G71" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2536,13 +2527,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F72" s="18">
         <v>35112</v>
@@ -2559,19 +2550,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F73" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G73" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2582,13 +2573,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F74" s="18">
         <v>35112</v>
@@ -2605,19 +2596,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F75" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G75" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2628,13 +2619,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F76" s="18">
         <v>35112</v>
@@ -2651,19 +2642,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F77" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G77" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2674,13 +2665,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F78" s="18">
         <v>35112</v>
@@ -2697,19 +2688,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F79" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G79" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2720,13 +2711,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="F80" s="18">
         <v>35112</v>
@@ -2743,19 +2734,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F81" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G81" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2766,13 +2757,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F82" s="18">
         <v>35112</v>
@@ -2789,19 +2780,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F83" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G83" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2812,13 +2803,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F84" s="18">
         <v>35112</v>
@@ -2835,19 +2826,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F85" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G85" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2858,13 +2849,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F86" s="18">
         <v>35112</v>
@@ -2881,19 +2872,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F87" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G87" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2904,13 +2895,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F88" s="18">
         <v>35112</v>
@@ -2927,19 +2918,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F89" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G89" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2950,13 +2941,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="F90" s="18">
         <v>35112</v>
@@ -2973,19 +2964,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="F91" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G91" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2996,13 +2987,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F92" s="18">
         <v>35112</v>
@@ -3019,19 +3010,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F93" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G93" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3042,13 +3033,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F94" s="18">
         <v>35112</v>
@@ -3065,19 +3056,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F95" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G95" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3088,13 +3079,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F96" s="18">
         <v>35112</v>
@@ -3111,19 +3102,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F97" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G97" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3134,13 +3125,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F98" s="18">
         <v>35112</v>
@@ -3157,19 +3148,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F99" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G99" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3180,13 +3171,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F100" s="18">
         <v>35112</v>
@@ -3203,19 +3194,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F101" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G101" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3226,13 +3217,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F102" s="18">
         <v>35112</v>
@@ -3249,19 +3240,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F103" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G103" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3272,13 +3263,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F104" s="18">
         <v>35112</v>
@@ -3295,19 +3286,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F105" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G105" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3318,13 +3309,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F106" s="18">
         <v>35112</v>
@@ -3341,19 +3332,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F107" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G107" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3364,13 +3355,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F108" s="18">
         <v>35112</v>
@@ -3387,19 +3378,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F109" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G109" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3410,13 +3401,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F110" s="18">
         <v>35112</v>
@@ -3433,19 +3424,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="F111" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G111" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3456,13 +3447,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F112" s="18">
         <v>35112</v>
@@ -3479,19 +3470,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E113" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F113" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G113" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3502,10 +3493,10 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
         <v>82</v>
@@ -3525,19 +3516,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F115" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G115" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3548,13 +3539,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F116" s="18">
         <v>35112</v>
@@ -3571,19 +3562,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F117" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G117" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3594,13 +3585,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F118" s="18">
         <v>35112</v>
@@ -3617,19 +3608,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F119" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G119" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3640,13 +3631,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F120" s="18">
         <v>35112</v>
@@ -3663,19 +3654,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E121" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F121" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G121" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3686,10 +3677,10 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
         <v>86</v>
@@ -3709,19 +3700,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F123" s="18">
-        <v>4845</v>
+        <v>40000</v>
       </c>
       <c r="G123" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3732,19 +3723,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="F124" s="18">
-        <v>34666</v>
+        <v>35112</v>
       </c>
       <c r="G124" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3755,13 +3746,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F125" s="18">
         <v>40000</v>
@@ -3778,19 +3769,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F126" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G126" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3801,13 +3792,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F127" s="18">
         <v>40000</v>
@@ -3824,742 +3815,75 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F128" s="18">
-        <v>40000</v>
+        <v>22238</v>
       </c>
       <c r="G128" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
       <c r="J128" s="20"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F129" s="18">
+      <c r="B129" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F129" s="24">
         <v>40000</v>
       </c>
-      <c r="G129" s="18">
+      <c r="G129" s="24">
         <v>1000000</v>
       </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G130" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F131" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G131" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B132" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F132" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G132" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B133" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F133" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G133" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="26"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B134" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F134" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G134" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
+      <c r="B134" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C134" s="32"/>
+      <c r="H134" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B135" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G135" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F136" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G136" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B137" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F137" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G137" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B138" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F138" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G138" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B139" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F139" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G139" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B140" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F140" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G140" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B141" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F141" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G141" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F142" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G142" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F143" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G143" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B144" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F144" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G144" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B145" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F145" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G145" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B146" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F146" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G146" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B147" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F147" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G147" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B148" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F148" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G148" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B149" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F149" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G149" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B150" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F150" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G150" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B151" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F151" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G151" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B152" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D152" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F152" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G152" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B153" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E153" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F153" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G153" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B154" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F154" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G154" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B155" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E155" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F155" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G155" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B156" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E156" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F156" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G156" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B157" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D157" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F157" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G157" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B158" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D158" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E158" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F158" s="24">
-        <v>37333</v>
-      </c>
-      <c r="G158" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H158" s="25"/>
-      <c r="I158" s="25"/>
-      <c r="J158" s="26"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B163" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C163" s="32"/>
-      <c r="H163" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B164" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C164" s="32"/>
-      <c r="H164" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
+      <c r="B135" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" s="32"/>
+      <c r="H135" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="H164:J164"/>
-    <mergeCell ref="H163:J163"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="H134:J134"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9011911581.xlsx
+++ b/Data/EC/NIT-9011911581.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6B5AEB7-0B3C-4EB8-8A9B-1FAEB1C46993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F0A3851-BF32-47BC-AE47-9D464C348B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{563B362C-7B8C-44EB-BE66-F6CEDD37DAD6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C5D9DE1E-5AB7-49AB-B4E5-410E7A234DB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="102">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -404,9 +407,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -419,7 +420,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -613,29 +616,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,19 +657,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,7 +728,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55087E8-52DA-BA09-A080-BD3110146352}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E894AA9C-42A8-1C6D-621A-7BE3BD822872}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1070,8 +1079,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C29DE5-7B1B-46A7-8DCC-F131B750EE59}">
-  <dimension ref="B2:J135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C11DA6-41C2-4206-A782-DD3023481C0F}">
+  <dimension ref="B2:J136"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1093,57 +1102,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9011911581</v>
       </c>
@@ -1172,12 +1181,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>4281078</v>
+        <v>4321078</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1188,17 +1197,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F13" s="5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1225,13 +1234,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1244,18 +1253,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G16" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G16" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1267,18 +1276,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G17" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G17" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1290,18 +1299,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G18" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G18" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1313,18 +1322,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G19" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G19" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1336,18 +1345,18 @@
       <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>15215</v>
       </c>
-      <c r="G20" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1359,18 +1368,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G21" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G21" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1382,18 +1391,18 @@
       <c r="D22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G22" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G22" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1405,18 +1414,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G23" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G23" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1428,18 +1437,18 @@
       <c r="D24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G24" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G24" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1451,18 +1460,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G25" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G25" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1474,18 +1483,18 @@
       <c r="D26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>19897</v>
       </c>
-      <c r="G26" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="G26" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1497,18 +1506,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G27" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G27" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1520,18 +1529,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G28" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G28" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1543,18 +1552,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G29" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G29" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1566,18 +1575,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G30" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G30" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1589,18 +1598,18 @@
       <c r="D31" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>7268</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>3205173</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1612,18 +1621,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G32" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G32" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1635,18 +1644,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G33" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G33" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1658,18 +1667,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G34" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G34" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1681,18 +1690,18 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G35" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G35" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1704,18 +1713,18 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G36" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G36" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1727,18 +1736,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G37" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G37" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1750,18 +1759,18 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G38" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G38" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1773,18 +1782,18 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G39" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G39" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1796,18 +1805,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G40" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G40" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1819,18 +1828,18 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G41" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G41" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1842,18 +1851,18 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G42" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G42" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1865,18 +1874,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G43" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G43" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1888,18 +1897,18 @@
       <c r="D44" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>4845</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="19">
         <v>908526</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1911,18 +1920,18 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G45" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G45" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1934,18 +1943,18 @@
       <c r="D46" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>34666</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="19">
         <v>1000000</v>
       </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1957,18 +1966,18 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G47" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G47" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1980,18 +1989,18 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F48" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G48" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G48" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -2003,18 +2012,18 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G49" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G49" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -2026,18 +2035,18 @@
       <c r="D50" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="19">
         <v>104000</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="19">
         <v>3205173</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2049,18 +2058,18 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G51" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G51" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2072,18 +2081,18 @@
       <c r="D52" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>104000</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="19">
         <v>3205173</v>
       </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2095,18 +2104,18 @@
       <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F53" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G53" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G53" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2118,18 +2127,18 @@
       <c r="D54" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="19">
         <v>104000</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="19">
         <v>3205173</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2141,18 +2150,18 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G55" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G55" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2164,18 +2173,18 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F56" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G56" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G56" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2187,18 +2196,18 @@
       <c r="D57" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>40000</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="19">
         <v>1000000</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2210,18 +2219,18 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F58" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G58" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G58" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2233,18 +2242,18 @@
       <c r="D59" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="19">
         <v>40000</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="19">
         <v>1000000</v>
       </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2256,18 +2265,18 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F60" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G60" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G60" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2279,18 +2288,18 @@
       <c r="D61" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="19">
         <v>37333</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="19">
         <v>1000000</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2302,18 +2311,18 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F62" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G62" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G62" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2325,18 +2334,18 @@
       <c r="D63" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="19">
         <v>40000</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="19">
         <v>1000000</v>
       </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2348,18 +2357,18 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F64" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G64" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G64" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2371,18 +2380,18 @@
       <c r="D65" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="19">
         <v>40000</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="19">
         <v>1000000</v>
       </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2394,18 +2403,18 @@
       <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F66" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G66" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G66" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2417,18 +2426,18 @@
       <c r="D67" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="19">
         <v>40000</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="19">
         <v>1000000</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2440,18 +2449,18 @@
       <c r="D68" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F68" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G68" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G68" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2463,18 +2472,18 @@
       <c r="D69" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="19">
         <v>40000</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="19">
         <v>1000000</v>
       </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2486,18 +2495,18 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F70" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G70" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G70" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2509,18 +2518,18 @@
       <c r="D71" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="19">
         <v>40000</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="19">
         <v>1000000</v>
       </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2532,18 +2541,18 @@
       <c r="D72" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F72" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G72" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G72" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2555,18 +2564,18 @@
       <c r="D73" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="19">
         <v>40000</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="19">
         <v>1000000</v>
       </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2578,18 +2587,18 @@
       <c r="D74" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F74" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G74" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G74" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2601,18 +2610,18 @@
       <c r="D75" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="19">
         <v>40000</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="19">
         <v>1000000</v>
       </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2624,18 +2633,18 @@
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F76" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G76" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G76" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2647,18 +2656,18 @@
       <c r="D77" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="19">
         <v>40000</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G77" s="19">
         <v>1000000</v>
       </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2670,18 +2679,18 @@
       <c r="D78" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F78" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G78" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G78" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2693,18 +2702,18 @@
       <c r="D79" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="19">
         <v>40000</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G79" s="19">
         <v>1000000</v>
       </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2716,18 +2725,18 @@
       <c r="D80" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F80" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G80" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G80" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2739,18 +2748,18 @@
       <c r="D81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="19">
         <v>40000</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G81" s="19">
         <v>1000000</v>
       </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2762,18 +2771,18 @@
       <c r="D82" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F82" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G82" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G82" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2785,18 +2794,18 @@
       <c r="D83" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F83" s="19">
         <v>40000</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G83" s="19">
         <v>1000000</v>
       </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2808,18 +2817,18 @@
       <c r="D84" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F84" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G84" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G84" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2831,18 +2840,18 @@
       <c r="D85" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F85" s="19">
         <v>40000</v>
       </c>
-      <c r="G85" s="18">
+      <c r="G85" s="19">
         <v>1000000</v>
       </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2854,18 +2863,18 @@
       <c r="D86" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F86" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G86" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="F86" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G86" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2877,18 +2886,18 @@
       <c r="D87" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="19">
         <v>40000</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="19">
         <v>1000000</v>
       </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2900,18 +2909,18 @@
       <c r="D88" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F88" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G88" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G88" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -2923,18 +2932,18 @@
       <c r="D89" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F89" s="18">
+      <c r="F89" s="19">
         <v>40000</v>
       </c>
-      <c r="G89" s="18">
+      <c r="G89" s="19">
         <v>1000000</v>
       </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -2946,18 +2955,18 @@
       <c r="D90" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F90" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G90" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="F90" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G90" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -2969,18 +2978,18 @@
       <c r="D91" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="19">
         <v>40000</v>
       </c>
-      <c r="G91" s="18">
+      <c r="G91" s="19">
         <v>1000000</v>
       </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -2992,18 +3001,18 @@
       <c r="D92" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F92" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G92" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="F92" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G92" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -3015,18 +3024,18 @@
       <c r="D93" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F93" s="18">
+      <c r="F93" s="19">
         <v>40000</v>
       </c>
-      <c r="G93" s="18">
+      <c r="G93" s="19">
         <v>1000000</v>
       </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -3038,18 +3047,18 @@
       <c r="D94" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F94" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G94" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="F94" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G94" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -3061,18 +3070,18 @@
       <c r="D95" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="19">
         <v>40000</v>
       </c>
-      <c r="G95" s="18">
+      <c r="G95" s="19">
         <v>1000000</v>
       </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3084,18 +3093,18 @@
       <c r="D96" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F96" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G96" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="F96" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G96" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3107,18 +3116,18 @@
       <c r="D97" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F97" s="18">
+      <c r="F97" s="19">
         <v>40000</v>
       </c>
-      <c r="G97" s="18">
+      <c r="G97" s="19">
         <v>1000000</v>
       </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3130,18 +3139,18 @@
       <c r="D98" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F98" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G98" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="F98" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G98" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3153,18 +3162,18 @@
       <c r="D99" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F99" s="18">
+      <c r="F99" s="19">
         <v>40000</v>
       </c>
-      <c r="G99" s="18">
+      <c r="G99" s="19">
         <v>1000000</v>
       </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3176,18 +3185,18 @@
       <c r="D100" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F100" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G100" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="F100" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G100" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3199,18 +3208,18 @@
       <c r="D101" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F101" s="18">
+      <c r="F101" s="19">
         <v>40000</v>
       </c>
-      <c r="G101" s="18">
+      <c r="G101" s="19">
         <v>1000000</v>
       </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3222,18 +3231,18 @@
       <c r="D102" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F102" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G102" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="F102" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G102" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3245,18 +3254,18 @@
       <c r="D103" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F103" s="18">
+      <c r="F103" s="19">
         <v>40000</v>
       </c>
-      <c r="G103" s="18">
+      <c r="G103" s="19">
         <v>1000000</v>
       </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3268,18 +3277,18 @@
       <c r="D104" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F104" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G104" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="F104" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G104" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3291,18 +3300,18 @@
       <c r="D105" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F105" s="18">
+      <c r="F105" s="19">
         <v>40000</v>
       </c>
-      <c r="G105" s="18">
+      <c r="G105" s="19">
         <v>1000000</v>
       </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3314,18 +3323,18 @@
       <c r="D106" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F106" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G106" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="F106" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G106" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3337,18 +3346,18 @@
       <c r="D107" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F107" s="18">
+      <c r="F107" s="19">
         <v>40000</v>
       </c>
-      <c r="G107" s="18">
+      <c r="G107" s="19">
         <v>1000000</v>
       </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3360,18 +3369,18 @@
       <c r="D108" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F108" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G108" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="F108" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G108" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3383,18 +3392,18 @@
       <c r="D109" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F109" s="18">
+      <c r="F109" s="19">
         <v>40000</v>
       </c>
-      <c r="G109" s="18">
+      <c r="G109" s="19">
         <v>1000000</v>
       </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3406,18 +3415,18 @@
       <c r="D110" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F110" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G110" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="F110" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G110" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
@@ -3429,18 +3438,18 @@
       <c r="D111" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F111" s="18">
+      <c r="F111" s="19">
         <v>40000</v>
       </c>
-      <c r="G111" s="18">
+      <c r="G111" s="19">
         <v>1000000</v>
       </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
@@ -3452,18 +3461,18 @@
       <c r="D112" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F112" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G112" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="F112" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G112" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
@@ -3475,18 +3484,18 @@
       <c r="D113" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F113" s="18">
+      <c r="F113" s="19">
         <v>40000</v>
       </c>
-      <c r="G113" s="18">
+      <c r="G113" s="19">
         <v>1000000</v>
       </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
@@ -3498,18 +3507,18 @@
       <c r="D114" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F114" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G114" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="F114" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G114" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
@@ -3521,18 +3530,18 @@
       <c r="D115" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F115" s="18">
+      <c r="F115" s="19">
         <v>40000</v>
       </c>
-      <c r="G115" s="18">
+      <c r="G115" s="19">
         <v>1000000</v>
       </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
@@ -3544,18 +3553,18 @@
       <c r="D116" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F116" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G116" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="F116" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G116" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
@@ -3567,18 +3576,18 @@
       <c r="D117" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F117" s="18">
+      <c r="F117" s="19">
         <v>40000</v>
       </c>
-      <c r="G117" s="18">
+      <c r="G117" s="19">
         <v>1000000</v>
       </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
@@ -3590,18 +3599,18 @@
       <c r="D118" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F118" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G118" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="F118" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G118" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
@@ -3613,18 +3622,18 @@
       <c r="D119" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F119" s="18">
+      <c r="F119" s="19">
         <v>40000</v>
       </c>
-      <c r="G119" s="18">
+      <c r="G119" s="19">
         <v>1000000</v>
       </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
@@ -3636,18 +3645,18 @@
       <c r="D120" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F120" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G120" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="F120" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G120" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
@@ -3659,18 +3668,18 @@
       <c r="D121" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F121" s="18">
+      <c r="F121" s="19">
         <v>40000</v>
       </c>
-      <c r="G121" s="18">
+      <c r="G121" s="19">
         <v>1000000</v>
       </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
@@ -3682,18 +3691,18 @@
       <c r="D122" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F122" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G122" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="F122" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G122" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="21"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
@@ -3705,18 +3714,18 @@
       <c r="D123" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F123" s="18">
+      <c r="F123" s="19">
         <v>40000</v>
       </c>
-      <c r="G123" s="18">
+      <c r="G123" s="19">
         <v>1000000</v>
       </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="21"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
@@ -3728,18 +3737,18 @@
       <c r="D124" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F124" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G124" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
+      <c r="F124" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G124" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
@@ -3751,18 +3760,18 @@
       <c r="D125" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F125" s="18">
+      <c r="F125" s="19">
         <v>40000</v>
       </c>
-      <c r="G125" s="18">
+      <c r="G125" s="19">
         <v>1000000</v>
       </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="21"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
@@ -3774,18 +3783,18 @@
       <c r="D126" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F126" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G126" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
+      <c r="F126" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G126" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="21"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
@@ -3797,18 +3806,18 @@
       <c r="D127" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F127" s="18">
+      <c r="F127" s="19">
         <v>40000</v>
       </c>
-      <c r="G127" s="18">
+      <c r="G127" s="19">
         <v>1000000</v>
       </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="21"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
@@ -3820,70 +3829,93 @@
       <c r="D128" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F128" s="18">
+      <c r="F128" s="19">
         <v>22238</v>
       </c>
-      <c r="G128" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
+      <c r="G128" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="21"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="22" t="s">
+      <c r="B129" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D129" s="23" t="s">
+      <c r="D129" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E129" s="22" t="s">
+      <c r="E129" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F129" s="24">
+      <c r="F129" s="19">
         <v>40000</v>
       </c>
-      <c r="G129" s="24">
+      <c r="G129" s="19">
         <v>1000000</v>
       </c>
-      <c r="H129" s="25"/>
-      <c r="I129" s="25"/>
-      <c r="J129" s="26"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B134" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C134" s="32"/>
-      <c r="H134" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="21"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B130" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F130" s="26">
+        <v>40000</v>
+      </c>
+      <c r="G130" s="26">
+        <v>1000000</v>
+      </c>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="28"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B135" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C135" s="32"/>
+      <c r="B135" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C135" s="34"/>
       <c r="H135" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
     </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B136" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C136" s="34"/>
+      <c r="H136" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B136:C136"/>
     <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="H136:J136"/>
     <mergeCell ref="H135:J135"/>
-    <mergeCell ref="H134:J134"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
